--- a/data_sample/ice_cores/testing-gap_extremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-gap_extremity-TS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -692,7 +692,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1011,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,6 +1160,15 @@
       <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1171,6 +1180,15 @@
       <c r="D9" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1190,6 +1208,15 @@
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1201,6 +1228,15 @@
       <c r="D12" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1212,6 +1248,15 @@
       <c r="D13" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1223,6 +1268,15 @@
       <c r="D14" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1249,6 +1303,15 @@
       </c>
       <c r="D17" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>25.89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data_sample/ice_cores/testing-gap_extremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-gap_extremity-TS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -692,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1011,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C21 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,6 +1325,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1345,7 +1346,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C21 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,7 +1464,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="C21 K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1490,7 +1491,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="C21 G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1652,7 +1653,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="1" sqref="C21 F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1712,7 +1713,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="C21 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
